--- a/wash_P/BEL.xlsx
+++ b/wash_P/BEL.xlsx
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="KL8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KM8" t="n">
         <v>0</v>
@@ -28456,7 +28456,7 @@
         <v>0</v>
       </c>
       <c r="KU9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KV9" t="n">
         <v>0</v>
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="MO9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MP9" t="n">
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="n">
         <v>0</v>
@@ -31584,7 +31584,7 @@
         <v>0</v>
       </c>
       <c r="KU10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KV10" t="n">
         <v>0</v>
@@ -34712,7 +34712,7 @@
         <v>0</v>
       </c>
       <c r="KU11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KV11" t="n">
         <v>0</v>
@@ -34850,7 +34850,7 @@
         <v>0</v>
       </c>
       <c r="MO11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="MP11" t="n">
         <v>0</v>
@@ -37840,7 +37840,7 @@
         <v>0</v>
       </c>
       <c r="KU12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KV12" t="n">
         <v>0</v>
@@ -44084,7 +44084,7 @@
         <v>0</v>
       </c>
       <c r="KQ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR14" t="n">
         <v>0</v>
@@ -44093,7 +44093,7 @@
         <v>0</v>
       </c>
       <c r="KT14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU14" t="n">
         <v>0</v>
@@ -47212,7 +47212,7 @@
         <v>0</v>
       </c>
       <c r="KQ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KR15" t="n">
         <v>0</v>
@@ -47221,7 +47221,7 @@
         <v>0</v>
       </c>
       <c r="KT15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="KU15" t="n">
         <v>0</v>
@@ -92492,7 +92492,7 @@
         <v>0</v>
       </c>
       <c r="ADS29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ADT29" t="n">
         <v>0</v>
